--- a/biology/Histoire de la zoologie et de la botanique/Charles_Thays/Charles_Thays.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Thays/Charles_Thays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Charles Thays était un architecte paysagiste né à Paris le 20 août 1849, mort à Buenos Aires le 31 janvier 1934. Il a été l'élève de l'architecte paysagiste Édouard André. Arrivé en Argentine en 1889 et devenu Argentin sous le nom de Carlos Thays, il a réalisé dans ce pays un grand nombre de jardins et de parcs.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Thays est l'élève et le disciple du jardinier et architecte paysagiste Édouard André. En 1889, il arrive en Argentine. Il a été recommandé par lui à Adolphe Alphand, directeur des travaux de Paris, qui lui confie un contrat d'un an pour la conception et l'exécution du parc Sarmiento de la ville de Cordoba, à la demande de l'entrepreneur Miguel Crisol. C'est sa première réalisation en Argentine.
 Il fait la connaissance et se marie l'année suivante avec Cora Venturino, dont la famille est d'origine uruguayenne. 
